--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>816651.434860189</v>
+        <v>856950.4477438757</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889764</v>
+        <v>337002.2430554235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072686</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8038245.454783056</v>
+        <v>8020643.073145781</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>241.0142888776591</v>
@@ -680,7 +682,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.72793538656374</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>78.60314522905686</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>58.57279613059754</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -975,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>84.47684708846107</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>231.8635835046281</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>52.27099462613455</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>14.86695539771652</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>199.3355115125534</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.4936872159399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>130.8951884589056</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.6751203255734</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>100.8330673628374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>85.42957511242933</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1737,7 +1739,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.2067433295009</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.23525597315229</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>22.35002255071607</v>
       </c>
       <c r="S19" t="n">
-        <v>9.220846587375998</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>46.58646588932444</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>199.6289396988178</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2208,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.6975753467953655</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>47.36189168600481</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>91.42179717797322</v>
+        <v>27.44707554504469</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>235.4745188564438</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>100.0150204661852</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>225.4603876057575</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2682,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2728,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.49690079789893</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>129.0246247964033</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.85151888224524</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2840,22 +2842,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>67.0196645560041</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017899</v>
+        <v>197.2982592812052</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>15.60663604574816</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>58.58442069852326</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9474759313285</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>74.53436060286485</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>276.2983106514751</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06908675853814684</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>49.3895792560368</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.48345164522491</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>327.9428964074127</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>130.1024780662194</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.5310119231965</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.4064161786965</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>88.06311349350432</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>46.60564476255257</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3977,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>282.7303379947616</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C2" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D2" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E2" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.1192463369997</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
         <v>132.6502787026334</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>783.4905096705352</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>783.4905096705352</v>
       </c>
       <c r="U3" t="n">
-        <v>428.1192463369997</v>
+        <v>783.4905096705352</v>
       </c>
       <c r="V3" t="n">
-        <v>428.1192463369997</v>
+        <v>783.4905096705352</v>
       </c>
       <c r="W3" t="n">
-        <v>428.1192463369997</v>
+        <v>783.4905096705352</v>
       </c>
       <c r="X3" t="n">
-        <v>428.1192463369997</v>
+        <v>783.4905096705352</v>
       </c>
       <c r="Y3" t="n">
-        <v>428.1192463369997</v>
+        <v>783.4905096705352</v>
       </c>
     </row>
     <row r="4">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
         <v>233.7108255783361</v>
@@ -4550,7 +4552,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587.9903182850353</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>413.5372890039083</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>264.602879342657</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>105.3654243372015</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>853.0588012668684</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>650.8722066256344</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2056553051034</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.0670914110444</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8614515073797</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
-        <v>21.05936271613335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>787.0670914110444</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110444</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>424.2571140861828</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C9" t="n">
-        <v>424.2571140861828</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D9" t="n">
-        <v>275.3227044249315</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E9" t="n">
-        <v>275.3227044249315</v>
+        <v>319.5636531650724</v>
       </c>
       <c r="F9" t="n">
-        <v>275.3227044249315</v>
+        <v>173.0290951919573</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>34.29826977457284</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231461</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352964</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927789</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993085</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>678.4944708143844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>678.4944708143844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>678.4944708143844</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>424.2571140861828</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>424.2571140861828</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y9" t="n">
-        <v>424.2571140861828</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1995.909162857192</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y11" t="n">
-        <v>2382.509002921313</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D13" t="n">
-        <v>186.160343900067</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5221,28 +5223,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1036.358670716696</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1036.358670716696</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>1036.358670716696</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.0913306681</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2110.329545306192</v>
+        <v>2610.856590904657</v>
       </c>
       <c r="V14" t="n">
-        <v>1779.266657962621</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="W14" t="n">
-        <v>1426.498002692507</v>
+        <v>1927.025048290972</v>
       </c>
       <c r="X14" t="n">
-        <v>1426.498002692507</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y14" t="n">
-        <v>1036.358670716696</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
         <v>505.8730812692495</v>
@@ -5373,7 +5375,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5385,13 +5387,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E16" t="n">
-        <v>663.910013048764</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1268.68094731003</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5543,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2630.244792055442</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2376.483006693534</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2045.420119349963</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2045.420119349963</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2045.420119349963</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1655.280787374151</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5695,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="S19" t="n">
-        <v>570.6683391887233</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="T19" t="n">
-        <v>343.360151857325</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C20" t="n">
-        <v>412.208680427115</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2495.503697383053</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2241.741912021145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>1910.679024677574</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W20" t="n">
-        <v>1557.91036940746</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2519.585513306029</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2471.745218673701</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>2471.745218673701</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>2471.745218673701</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>2471.745218673701</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>2471.745218673701</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>2243.755667775683</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1157.367208492925</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C23" t="n">
-        <v>1157.367208492925</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D23" t="n">
-        <v>799.1015098861748</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2604.803841343502</v>
+        <v>2614.396082816347</v>
       </c>
       <c r="U23" t="n">
-        <v>2604.803841343502</v>
+        <v>2614.396082816347</v>
       </c>
       <c r="V23" t="n">
-        <v>2273.740953999931</v>
+        <v>2283.333195472776</v>
       </c>
       <c r="W23" t="n">
-        <v>1920.972298729817</v>
+        <v>1930.564540202662</v>
       </c>
       <c r="X23" t="n">
-        <v>1547.506540468737</v>
+        <v>1557.098781941583</v>
       </c>
       <c r="Y23" t="n">
-        <v>1157.367208492925</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="24">
@@ -6063,46 +6065,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>184.2708856551154</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W25" t="n">
-        <v>184.2708856551154</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X25" t="n">
-        <v>184.2708856551154</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.2708856551154</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.643464250441</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>924.2198584148894</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>565.9541598081389</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>565.9541598081389</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>154.9682550185314</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6230,46 +6232,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X26" t="n">
-        <v>2414.382636290375</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.243304314563</v>
+        <v>1679.782215419423</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>207.9455298913111</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>71.61661898995933</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>597.8010803716834</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.38930518072</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.38930518072</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D29" t="n">
-        <v>792.1236065739693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
         <v>381.1377017843616</v>
@@ -6464,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2574.423770684065</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.288858935031</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="X29" t="n">
-        <v>1584.823100673951</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="Y29" t="n">
-        <v>1194.683768698139</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>2153.047432775375</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1732.515907621104</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C32" t="n">
-        <v>1363.553390680693</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D32" t="n">
-        <v>1363.553390680693</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2450.178635028797</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2450.178635028797</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="V32" t="n">
-        <v>2119.115747685226</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="W32" t="n">
-        <v>2119.115747685226</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X32" t="n">
-        <v>2119.115747685226</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y32" t="n">
-        <v>2119.115747685226</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036446</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.1897464970881</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C34" t="n">
-        <v>190.2535635691812</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D34" t="n">
-        <v>190.2535635691812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>190.2535635691812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>190.2535635691812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>190.2535635691812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2535635691812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036446</v>
@@ -6880,28 +6882,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>579.9823256406182</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X34" t="n">
-        <v>579.9823256406182</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.1897464970881</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1171.95857907428</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>813.6928804675297</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>813.6928804675297</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>813.6928804675297</v>
       </c>
       <c r="G35" t="n">
-        <v>381.2074863889456</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>54.01276642494844</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6938,16 +6940,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6965,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7116,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2504.955764169438</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2277.64757683804</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U37" t="n">
-        <v>2277.64757683804</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>2241.851352788807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>554.3221432721089</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C38" t="n">
-        <v>185.3596263316971</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D38" t="n">
-        <v>185.3596263316971</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E38" t="n">
-        <v>185.3596263316971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>185.3596263316971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>185.3596263316971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>185.3596263316971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7175,10 +7177,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7202,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.527073573122</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>1331.061315312042</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y38" t="n">
-        <v>940.9219833362306</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961344</v>
@@ -7254,13 +7256,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7275,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7357,16 +7359,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
         <v>53.94298182036445</v>
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.9054987607761</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>53.94298182036445</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7439,22 +7441,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.879084331904</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.11042906179</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.64467080071</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.505338824898</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>290.8087152951862</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C43" t="n">
-        <v>290.8087152951862</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>290.8087152951862</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8956217127931</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7591,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>681.052575355371</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>681.052575355371</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>681.052575355371</v>
       </c>
       <c r="U43" t="n">
-        <v>290.8087152951862</v>
+        <v>391.878965009939</v>
       </c>
       <c r="V43" t="n">
-        <v>290.8087152951862</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W43" t="n">
-        <v>290.8087152951862</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X43" t="n">
-        <v>290.8087152951862</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y43" t="n">
-        <v>290.8087152951862</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.153685885794</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.153685885794</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.153685885794</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>1238.153685885794</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.892857925727</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.753525949915</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
         <v>665.1105362747051</v>
@@ -7737,7 +7739,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7840,16 +7842,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0273259635867</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X46" t="n">
-        <v>184.0273259635867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.0273259635867</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2926466205232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22559,7 +22561,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>98.46051323810809</v>
@@ -22568,7 +22570,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>189.2921341996816</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>155.3634430599709</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>93.08002587478096</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>167.3685859503773</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22784,16 +22786,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22863,16 +22865,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>60.59236530492281</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,22 +22913,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>61.79480040250768</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>133.4093082663795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205949</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="9">
@@ -23106,22 +23108,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>85.02302205356111</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>97.36848883877994</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>2.023134740338435</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>182.5948585597083</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.74425144011366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>15.53877418766362</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735787</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>115.6152529948204</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>165.79459239586</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.7236267427609</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>150.2130643845055</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>124.3151694294418</v>
       </c>
       <c r="S19" t="n">
-        <v>202.9246923626429</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.6864258816831</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>16.81938065883998</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5492457518325</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>164.7836472640141</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>125.0265231796846</v>
+        <v>189.0012448126131</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.28517746264748</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24418,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>51.04847948014725</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>313.7691495546098</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,7 +24499,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24616,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>27.70305839063807</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>83.12091415361559</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>338.8823227812353</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>107.3960482529674</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,13 +24897,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724728</v>
+        <v>28.41139610783196</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>200.8416843119096</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>192.6397468097661</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25095,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0181458610096854</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>211.9886377337261</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>137.4858593693199</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.8622294863231</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>96.03146876689445</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25354,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>197.662087304794</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>53.98747366484906</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>21.82883817864189</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25597,19 +25599,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25679,16 +25681,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>86.34584229143843</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>57.35793452942693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>100.0595472176053</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>124.1457077469499</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,7 +25921,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26080,13 +26082,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>242.3472027101784</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448693.3607796695</v>
+        <v>448693.3607796696</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448693.3607796696</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467732.0967585471</v>
+        <v>448693.3607796694</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775112.3260770597</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775112.3260770593</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26332,7 +26334,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133937</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266329</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525744</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8577.315374774351</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="M4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9371.018034361481</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,13 +26487,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638.76028698068</v>
+        <v>3638.760286980694</v>
       </c>
       <c r="C6" t="n">
-        <v>84408.19181852842</v>
+        <v>84408.1918185284</v>
       </c>
       <c r="D6" t="n">
-        <v>62013.81764297705</v>
+        <v>84408.19181852846</v>
       </c>
       <c r="E6" t="n">
-        <v>-220543.2152679512</v>
+        <v>-245668.9516273731</v>
       </c>
       <c r="F6" t="n">
         <v>187177.2224156229</v>
@@ -26537,22 +26539,22 @@
         <v>187177.222415623</v>
       </c>
       <c r="H6" t="n">
-        <v>187177.2224156229</v>
+        <v>187177.222415623</v>
       </c>
       <c r="I6" t="n">
-        <v>187177.222415623</v>
+        <v>187177.2224156228</v>
       </c>
       <c r="J6" t="n">
-        <v>124117.2798165168</v>
+        <v>124117.2798165167</v>
       </c>
       <c r="K6" t="n">
         <v>187177.222415623</v>
       </c>
       <c r="L6" t="n">
-        <v>181551.5801870972</v>
+        <v>187177.2224156229</v>
       </c>
       <c r="M6" t="n">
-        <v>84743.10472498789</v>
+        <v>79203.86174156492</v>
       </c>
       <c r="N6" t="n">
         <v>187177.2224156229</v>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,13 +26807,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400794</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483716004</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,7 +35503,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,10 +35977,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856950.4477438757</v>
+        <v>788689.4501072413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554235</v>
+        <v>332906.6712380801</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8020643.073145781</v>
+        <v>8069050.887878731</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>78.60314522905686</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>189.3309049510881</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>140.0390559390599</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>109.8883707013301</v>
+        <v>138.3086739421127</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18689457445403</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14.86695539771652</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>178.1027176235922</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>199.3355115125534</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.87096028541178</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6751203255734</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>219.0168054731837</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>85.42957511242933</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1739,7 +1739,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>86.88462298447467</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>84.53754774285326</v>
       </c>
       <c r="E17" t="n">
-        <v>140.2067433295009</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>22.35002255071607</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>46.58646588932444</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>199.0074215892093</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6975753467953655</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>267.2323487638325</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.44707554504469</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>235.4745188564438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>100.0150204661852</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>21.06378739765032</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.49690079789893</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>136.0635324958292</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>67.0196645560041</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>197.2982592812052</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>58.58442069852326</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>276.2983106514754</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>74.53436060286485</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>276.2983106514751</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>49.3895792560368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>327.9428964074127</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3562,7 +3562,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>46.53022516273526</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>321.7064610691122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>254.3476487849474</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.60564476255257</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>123.5754622188318</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>74.53436060286474</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.4018176583718</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4018176583718</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D2" t="n">
-        <v>487.4018176583718</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="E2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y2" t="n">
-        <v>487.4018176583718</v>
+        <v>978.2509294445696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.2751726504672</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="C3" t="n">
-        <v>440.8221433693402</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="D3" t="n">
-        <v>291.8877337080889</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>239.4861551219973</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>783.4905096705352</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>783.4905096705352</v>
+        <v>787.0075911101371</v>
       </c>
       <c r="U3" t="n">
-        <v>783.4905096705352</v>
+        <v>787.0075911101371</v>
       </c>
       <c r="V3" t="n">
-        <v>783.4905096705352</v>
+        <v>551.8554828783945</v>
       </c>
       <c r="W3" t="n">
-        <v>783.4905096705352</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="X3" t="n">
-        <v>783.4905096705352</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="Y3" t="n">
-        <v>783.4905096705352</v>
+        <v>304.8224198873415</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>556.9999364092505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>79.33446981177622</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>339.9440834239264</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>853.0588012668684</v>
+        <v>913.2624045520082</v>
       </c>
       <c r="T6" t="n">
-        <v>650.8722066256344</v>
+        <v>711.2773469670841</v>
       </c>
       <c r="U6" t="n">
-        <v>422.6485883620235</v>
+        <v>483.0570182092889</v>
       </c>
       <c r="V6" t="n">
-        <v>187.4964801302808</v>
+        <v>483.0570182092889</v>
       </c>
       <c r="W6" t="n">
-        <v>187.4964801302808</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4964801302808</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>529.5587134138201</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.7355178317791</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="C9" t="n">
-        <v>627.7355178317791</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D9" t="n">
-        <v>478.8011081705279</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E9" t="n">
-        <v>319.5636531650724</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F9" t="n">
-        <v>173.0290951919573</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G9" t="n">
-        <v>34.29826977457284</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>550.8404071153843</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>550.8404071153843</v>
       </c>
       <c r="W9" t="n">
-        <v>627.7355178317791</v>
+        <v>550.8404071153843</v>
       </c>
       <c r="X9" t="n">
-        <v>627.7355178317791</v>
+        <v>550.8404071153843</v>
       </c>
       <c r="Y9" t="n">
-        <v>627.7355178317791</v>
+        <v>343.0801083504305</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>1309.714918859356</v>
       </c>
       <c r="C11" t="n">
-        <v>940.7524019189439</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D11" t="n">
-        <v>582.4867033121934</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E11" t="n">
-        <v>381.1377017843616</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F11" t="n">
-        <v>381.1377017843616</v>
+        <v>540.4633154629976</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>122.4995073611844</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>122.4995073611844</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600561</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600561</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2610.856590904657</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2279.793703561087</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W14" t="n">
-        <v>1927.025048290972</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X14" t="n">
-        <v>1553.559290029893</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5381,19 +5381,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>141.7052272592278</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>141.7052272592278</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1723.03492661696</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R19" t="n">
-        <v>705.5532038521756</v>
+        <v>557.6485750391623</v>
       </c>
       <c r="S19" t="n">
-        <v>705.5532038521756</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T19" t="n">
-        <v>705.5532038521756</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U19" t="n">
-        <v>705.5532038521756</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>450.8687156462887</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1315.737983561872</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
         <v>1268.68094731003</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X20" t="n">
-        <v>2092.477155601806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y20" t="n">
-        <v>1702.337823625994</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5852,22 +5852,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.959449965771</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253591</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2614.396082816347</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2614.396082816347</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2283.333195472776</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1930.564540202662</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>1557.098781941583</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y23" t="n">
-        <v>1166.959449965771</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="24">
@@ -6086,25 +6086,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1293.182375355301</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C26" t="n">
-        <v>924.2198584148894</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D26" t="n">
-        <v>565.9541598081389</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E26" t="n">
-        <v>565.9541598081389</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>154.9682550185314</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.387305656314</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="W26" t="n">
-        <v>2443.387305656314</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X26" t="n">
-        <v>2069.921547395234</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y26" t="n">
-        <v>1679.782215419423</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6939024587809</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C28" t="n">
-        <v>365.6939024587809</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D28" t="n">
-        <v>365.6939024587809</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="E28" t="n">
-        <v>365.6939024587809</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="F28" t="n">
-        <v>365.6939024587809</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="G28" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>207.9455298913111</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>71.61661898995933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036446</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6939024587809</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1579.049931616194</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2574.423770684065</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2355.789103656128</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2355.789103656128</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2355.789103656128</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W29" t="n">
-        <v>2355.789103656128</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X29" t="n">
-        <v>2355.789103656128</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y29" t="n">
-        <v>1965.649771680316</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="30">
@@ -6542,31 +6542,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>579.9823256406182</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X31" t="n">
-        <v>380.6911546495019</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1954.141365880777</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C32" t="n">
-        <v>1954.141365880777</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U32" t="n">
-        <v>2637.972908494462</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>2306.910021150891</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W32" t="n">
-        <v>1954.141365880777</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X32" t="n">
-        <v>1954.141365880777</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.141365880777</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204.0596212327002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036446</v>
@@ -6897,13 +6897,13 @@
         <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X34" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1540.921096014692</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1171.95857907428</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>813.6928804675297</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>813.6928804675297</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F35" t="n">
-        <v>813.6928804675297</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1540.921096014692</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1540.921096014692</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7037,22 +7037,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2241.851352788807</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2241.851352788807</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>2241.851352788807</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>2241.851352788807</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2241.851352788807</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2241.851352788807</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1112.426648284105</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C38" t="n">
-        <v>743.4641313436935</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D38" t="n">
-        <v>385.1984327369429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>1946.546234035934</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545185</v>
+        <v>1593.77757876582</v>
       </c>
       <c r="X38" t="n">
-        <v>1112.426648284105</v>
+        <v>1220.31182050474</v>
       </c>
       <c r="Y38" t="n">
-        <v>1112.426648284105</v>
+        <v>830.1724885289282</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7359,16 +7359,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
         <v>53.94298182036445</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>764.6872557005402</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>378.8990031022959</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>681.052575355371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>681.052575355371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>681.052575355371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>391.878965009939</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>391.878965009939</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>589.7525858209133</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>178.7666810313057</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7678,22 +7678,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C46" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="V46" t="n">
-        <v>718.2396502532528</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W46" t="n">
-        <v>428.8224802162921</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X46" t="n">
-        <v>200.8329293182748</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>231.0813024560196</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>384.6945110063437</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>186.6702232840453</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>223.6557144812347</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3229869997865</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595406</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.3634430599709</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>93.08002587478096</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>10.80197204563075</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>75.28528753921148</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>82.6518043478396</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>61.79480040250768</v>
+        <v>32.45504739117268</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>67.9332040940474</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>393.9750539528654</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>97.36848883877994</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>47.83370861860163</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>47.78481791206872</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>182.5948585597083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>84.06035595944947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74592769735787</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>135.6662361474993</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>165.79459239586</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458445</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>69.28626585732047</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>270.1454938778297</v>
       </c>
       <c r="E17" t="n">
-        <v>241.7236267427609</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>124.3151694294418</v>
+        <v>7.012336859472725</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,13 +23949,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>318.6864258816831</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>187.2305170668443</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.5492457518325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>98.04054300717502</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24259,10 +24259,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>189.0012448126131</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>51.04847948014725</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>313.7691495546098</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,25 +24493,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>153.3519254113212</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950175</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>27.70305839063807</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>246.6703091676513</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>107.3960482529674</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>28.41139610783196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>62.69861478456102</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>192.6397468097661</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>93.43279002699359</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>211.9886377337261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>137.4858593693199</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>96.03146876689445</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>53.98747366484906</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>281.2220333073997</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25599,19 +25599,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>115.3834518935217</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>100.0595472176053</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>290.2087078019632</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>137.6111783471542</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26082,16 +26082,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>242.3472027101784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448693.3607796696</v>
+        <v>451768.8547570534</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448693.3607796695</v>
+        <v>467732.096758547</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448693.3607796694</v>
+        <v>477924.5134908578</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26334,7 +26334,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133937</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214116</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>394217.2929137604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.454491750077</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581557</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>99215.77767884445</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>8552.584737532376</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>8577.315374774353</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>8599.193178783524</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361483</v>
@@ -26435,10 +26435,10 @@
         <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361483</v>
@@ -26447,13 +26447,13 @@
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="M4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="M4" t="n">
-        <v>9371.018034361485</v>
-      </c>
       <c r="N4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361483</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638.760286980694</v>
+        <v>-12566.336409324</v>
       </c>
       <c r="C6" t="n">
-        <v>84408.1918185284</v>
+        <v>53123.02831638779</v>
       </c>
       <c r="D6" t="n">
-        <v>84408.19181852846</v>
+        <v>64861.69315077389</v>
       </c>
       <c r="E6" t="n">
-        <v>-245668.9516273731</v>
+        <v>-213108.4842439567</v>
       </c>
       <c r="F6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="G6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="H6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="I6" t="n">
-        <v>187177.2224156228</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="J6" t="n">
-        <v>124117.2798165167</v>
+        <v>117120.437123905</v>
       </c>
       <c r="K6" t="n">
-        <v>187177.222415623</v>
+        <v>176301.3541780537</v>
       </c>
       <c r="L6" t="n">
-        <v>187177.2224156229</v>
+        <v>177840.2700752221</v>
       </c>
       <c r="M6" t="n">
-        <v>79203.86174156492</v>
+        <v>81893.03099095929</v>
       </c>
       <c r="N6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698037</v>
       </c>
       <c r="O6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="P6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698037</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233572</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052437</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068871</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>398.1307590522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>94.24272062454131</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>58.8637445410534</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>788689.4501072413</v>
+        <v>849352.0092073862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332906.6712380801</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10850698.87543052</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8069050.887878731</v>
+        <v>8020643.073145781</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215.4108546636941</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>108.2953254812187</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>189.3309049510881</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>263.2420339516669</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>140.0390559390599</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.3086739421127</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>21.18689457445403</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>82.46119763909357</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>178.1027176235922</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>176.3932096023461</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>67.87096028541178</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>219.0168054731837</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>262.4008770978205</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>139.8041854157606</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>86.88462298447467</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>84.53754774285326</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>341.2160181806804</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>121.2699779972376</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>66.23525597315229</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>199.0074215892093</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>25.02169492285063</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>267.2323487638325</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>251.7150964182526</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>15.5863391041184</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>21.06378739765032</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.693200015577881</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>136.0635324958292</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>360.7576006254225</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2851,13 +2851,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -3006,19 +3006,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>195.1509705068316</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3088,13 +3088,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>276.2983106514754</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.72683757586857</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.19029374363592</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>199.8692462101356</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651123</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>46.53022516273526</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>56.51458129297931</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>123.0607915108177</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>254.3476487849474</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>89.30725745073111</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>123.5754622188318</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>24.56649633070137</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.53436060286474</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>760.6642075620503</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>978.2509294445696</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>978.2509294445696</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.8224198873415</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C3" t="n">
-        <v>304.8224198873415</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D3" t="n">
-        <v>304.8224198873415</v>
+        <v>128.6703607680094</v>
       </c>
       <c r="E3" t="n">
-        <v>304.8224198873415</v>
+        <v>128.6703607680094</v>
       </c>
       <c r="F3" t="n">
-        <v>158.2878619142265</v>
+        <v>128.6703607680094</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>239.4861551219973</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>481.6032601595282</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>481.6032601595282</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>723.7203651970592</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>907.8577401332358</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>787.0075911101371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>787.0075911101371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>551.8554828783945</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>304.8224198873415</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>304.8224198873415</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.8224198873415</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E5" t="n">
-        <v>556.9999364092505</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F5" t="n">
-        <v>556.9999364092505</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G5" t="n">
-        <v>291.0988920136273</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415462</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>698.4535282668868</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>556.9999364092505</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.05936271613335</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613335</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613335</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>21.05936271613335</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>79.33446981177622</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>339.9440834239264</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>600.5536970360766</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285688</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>913.2624045520082</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>711.2773469670841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>483.0570182092889</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>483.0570182092889</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>228.8196614810873</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8196614810873</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.05936271613335</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>529.5587134138201</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>529.5587134138201</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>529.5587134138201</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>529.5587134138201</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>529.5587134138201</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>508.1578098032605</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>229.2118363665377</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>22.09252109618844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09252109618846</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>344.9085595412869</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>586.3582880173956</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>817.0829279823542</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>989.7620250901064</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1099.465256491931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>962.1762753293418</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>754.2855273228794</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>529.5587134138201</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>529.5587134138201</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V8" t="n">
-        <v>529.5587134138201</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>529.5587134138201</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>529.5587134138201</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>529.5587134138201</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.0801083504305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>168.6270790693035</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>168.6270790693035</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>168.6270790693035</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>22.09252109618844</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>268.2479876888895</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>367.8501726635177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>641.2451212288496</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>907.7419348121334</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1104.626054809422</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>932.6220420606005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>730.7421420887098</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>550.8404071153843</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>550.8404071153843</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>550.8404071153843</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>550.8404071153843</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>343.0801083504305</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>58.70189726492715</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6904745160687</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>160.9488293168851</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>194.1252445754623</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09252109618844</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>22.09252109618844</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1309.714918859356</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.714918859356</v>
+        <v>1509.552794371413</v>
       </c>
       <c r="D11" t="n">
-        <v>951.4492202526051</v>
+        <v>1509.552794371413</v>
       </c>
       <c r="E11" t="n">
-        <v>951.4492202526051</v>
+        <v>1123.764541773169</v>
       </c>
       <c r="F11" t="n">
-        <v>540.4633154629976</v>
+        <v>712.778636983561</v>
       </c>
       <c r="G11" t="n">
-        <v>122.4995073611844</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>122.4995073611844</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.714918859356</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1309.714918859356</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1406.118858921978</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="C14" t="n">
-        <v>1406.118858921978</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="D14" t="n">
-        <v>1184.889762484419</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="E14" t="n">
-        <v>799.1015098861748</v>
+        <v>1217.618876898985</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V14" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W14" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X14" t="n">
-        <v>1796.25819089779</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y14" t="n">
-        <v>1406.118858921978</v>
+        <v>1603.407129497229</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5375,25 +5375,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="C16" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="D16" t="n">
-        <v>288.5951747571381</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="E16" t="n">
-        <v>288.5951747571381</v>
+        <v>352.907703292643</v>
       </c>
       <c r="F16" t="n">
-        <v>141.7052272592278</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G16" t="n">
-        <v>141.7052272592278</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1723.03492661696</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C17" t="n">
-        <v>1354.072409676548</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733129</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W17" t="n">
-        <v>2113.174258592771</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X17" t="n">
-        <v>2113.174258592771</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y17" t="n">
-        <v>1723.03492661696</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>557.6485750391623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1637.643464250441</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2630.244792055442</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2376.483006693533</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W20" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X20" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1637.643464250441</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5807,73 +5807,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>248.2172213980428</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>248.2172213980428</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>248.2172213980428</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>79.21742113637518</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1485.892406545185</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.960741127172</v>
+        <v>1052.254606175109</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>693.9889075683589</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>308.2006549701146</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545185</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y23" t="n">
-        <v>1485.892406545185</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6086,7 +6086,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2323.103882821189</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="D26" t="n">
         <v>1595.875667274027</v>
@@ -6220,58 +6220,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2675.872538091303</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2675.872538091303</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2675.872538091303</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2675.872538091303</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W26" t="n">
-        <v>2323.103882821189</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.103882821189</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.103882821189</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.6879402326645</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7517573047575</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D28" t="n">
-        <v>156.7517573047575</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E28" t="n">
-        <v>156.7517573047575</v>
+        <v>63.7340929472108</v>
       </c>
       <c r="F28" t="n">
-        <v>156.7517573047575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629042</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>571.8105746186309</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>571.8105746186309</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>571.8105746186309</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.72394915887</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X29" t="n">
-        <v>1796.25819089779</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1406.118858921978</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="30">
@@ -6542,31 +6542,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6654,16 +6654,16 @@
         <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
         <v>53.94298182036445</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1261.831893336434</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C32" t="n">
-        <v>892.8693763960225</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="D32" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X32" t="n">
-        <v>1261.831893336434</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.831893336434</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>667.7988452409105</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C34" t="n">
-        <v>498.8626623130036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D34" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>291.8218666715633</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>122.8220664098957</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>830.1724885289282</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>830.1724885289282</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V38" t="n">
-        <v>1946.546234035934</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>1593.77757876582</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>1220.31182050474</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>830.1724885289282</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,22 +7435,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2302.336936304455</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W41" t="n">
-        <v>2302.336936304455</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X41" t="n">
         <v>2045.420119349963</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>975.5408384191576</v>
+        <v>1546.874376112625</v>
       </c>
       <c r="C44" t="n">
-        <v>975.5408384191576</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D44" t="n">
-        <v>975.5408384191576</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E44" t="n">
-        <v>589.7525858209133</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F44" t="n">
-        <v>178.7666810313057</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2478.514423990285</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2125.745768720171</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1752.280010459091</v>
+        <v>1933.474216176747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1362.140678483279</v>
+        <v>1933.474216176747</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7772,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>652.8417512742476</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>652.8417512742476</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W46" t="n">
-        <v>652.8417512742476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>231.0813024560196</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>384.6945110063437</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>186.6702232840453</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093849</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808121</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>223.6557144812347</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>387.9064735273546</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.3229869997865</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>120.7101594098652</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>137.3676377111194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22631,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29.04819168199192</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>10.80197204563075</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.132250799777211</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>149.4414326714929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521645</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>75.28528753921148</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>82.6518043478396</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>32.45504739117268</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>67.9332040940474</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>393.9750539528654</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>61.87643319194535</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>47.83370861860163</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>14.93225064571201</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4537986637794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>47.78481791206872</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3155846423218</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>237.3909604184489</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>84.06035595944947</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>59.54933966209474</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23469,10 +23469,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744438</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>135.6662361474993</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>144.4751686438909</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5.616862607170674</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>69.28626585732047</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>270.1454938778297</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.024950536732604</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>7.012336859472725</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>97.3146753548572</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>150.2130643845055</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.2305170668443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>131.1491939189445</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>98.04054300717502</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>155.1609493234588</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592665</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>339.0967025165646</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>153.3519254113212</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>135.7278480073534</v>
       </c>
       <c r="G28" t="n">
-        <v>65.52911452950175</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,10 +24654,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>246.6703091676513</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>46.11844511628891</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.69861478456102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>159.5320711138513</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>93.43279002699359</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.1051426060687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>87.98059509815923</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>149.3717225072774</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.53450764830047</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>281.2220333073997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>229.7672929489984</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>204.6914669593172</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>115.3834518935217</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>59.30821556748124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>290.2087078019632</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>345.1646043477677</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>137.6111783471542</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>451768.8547570534</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>467732.096758547</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477924.5134908578</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>150604.5581398032</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26349,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85498.77860120904</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189539</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14295.33970214116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>394217.2929137604</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589876</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750077</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3268.538594581557</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99215.77767884445</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8552.584737532376</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8577.315374774353</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8599.193178783524</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="J4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
@@ -26459,7 +26459,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>51181.37951678014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12566.336409324</v>
+        <v>2416.959224976706</v>
       </c>
       <c r="C6" t="n">
-        <v>53123.02831638779</v>
+        <v>83186.39075652439</v>
       </c>
       <c r="D6" t="n">
-        <v>64861.69315077389</v>
+        <v>83186.39075652439</v>
       </c>
       <c r="E6" t="n">
-        <v>-213108.4842439567</v>
+        <v>-246275.7930019551</v>
       </c>
       <c r="F6" t="n">
-        <v>181108.8086698038</v>
+        <v>186570.3810410411</v>
       </c>
       <c r="G6" t="n">
-        <v>181108.8086698038</v>
+        <v>186570.3810410411</v>
       </c>
       <c r="H6" t="n">
-        <v>181108.8086698038</v>
+        <v>186570.381041041</v>
       </c>
       <c r="I6" t="n">
-        <v>181108.8086698038</v>
+        <v>186570.381041041</v>
       </c>
       <c r="J6" t="n">
-        <v>117120.437123905</v>
+        <v>123510.4384419348</v>
       </c>
       <c r="K6" t="n">
-        <v>176301.3541780537</v>
+        <v>186570.3810410411</v>
       </c>
       <c r="L6" t="n">
-        <v>177840.2700752221</v>
+        <v>186570.3810410411</v>
       </c>
       <c r="M6" t="n">
-        <v>81893.03099095929</v>
+        <v>78597.02036698288</v>
       </c>
       <c r="N6" t="n">
-        <v>181108.8086698037</v>
+        <v>186570.3810410409</v>
       </c>
       <c r="O6" t="n">
-        <v>181108.8086698038</v>
+        <v>186570.3810410411</v>
       </c>
       <c r="P6" t="n">
-        <v>181108.8086698037</v>
+        <v>186570.3810410411</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912534</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26773,13 +26773,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>276.1565137023555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.00787803233572</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342.7224034979613</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052437</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068871</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.42776745276012</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677233</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081218</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411507</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.84383625587038</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847513</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.616303794162698</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0753287494713262</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520189</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727679</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779991</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>19.08658709192331</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263571</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008305</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006208</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623704</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174389</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170847</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894685</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.89953440294882</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394052</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179687</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938414</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587926</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457197</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094299</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>94.24272062454131</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.10423162760989</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>58.8637445410534</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833254</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>121.9644487350302</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>204.1123577751702</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>243.8886146223321</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>233.0551918837966</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>174.4233304118708</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>110.8113448503282</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>100.6082676511396</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>269.1887005891756</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>198.8728484821096</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>36.97916784721082</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>49.4834113647894</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>53.79631798062265</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>33.51153056421936</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
